--- a/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/土地登记-导入.xlsx
+++ b/LoowooTech.Land.Zhoushan.Web/templates/舟山整理/土地登记-导入.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7830"/>
+    <workbookView windowWidth="19005" windowHeight="10950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39">
-  <si>
-    <t>{Form=5}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+  <si>
+    <t>土地登记 6</t>
   </si>
   <si>
     <t>土地抵押登记（亩）</t>
@@ -27,112 +27,100 @@
     <t>{Quarter}季度</t>
   </si>
   <si>
+    <t>同比%</t>
+  </si>
+  <si>
+    <t>期末情况：</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    土地抵押登记宗数（宗）</t>
+  </si>
+  <si>
+    <t>{Value=3}</t>
+  </si>
+  <si>
+    <t>{RateValue=1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    土地抵押面积</t>
+  </si>
+  <si>
+    <t>{Value=1}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    抵押贷款金额（亿元）</t>
+  </si>
+  <si>
+    <t>{Value=4}</t>
+  </si>
+  <si>
+    <t>期内增加：</t>
+  </si>
+  <si>
+    <t>期内减少：</t>
+  </si>
+  <si>
+    <t>期末分区土地抵押登记情况（亩）</t>
+  </si>
+  <si>
+    <t>面积</t>
+  </si>
+  <si>
+    <t>抵押贷款（亿元）</t>
+  </si>
+  <si>
+    <t>市本级</t>
+  </si>
+  <si>
+    <t>{Value=1 Node=46}</t>
+  </si>
+  <si>
+    <t>{Value=4 Node=47}</t>
+  </si>
+  <si>
+    <t>其中：新城</t>
+  </si>
+  <si>
+    <t>产业集聚区</t>
+  </si>
+  <si>
+    <t>定海区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：金塘</t>
+  </si>
+  <si>
+    <t>普陀区</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    其中：六横</t>
+  </si>
+  <si>
+    <t xml:space="preserve">          朱家尖</t>
+  </si>
+  <si>
+    <t>岱山县</t>
+  </si>
+  <si>
+    <t>嵊泗县</t>
+  </si>
+  <si>
+    <t>土地登记发证（宗）</t>
+  </si>
+  <si>
     <t>{Rate}同比%</t>
   </si>
   <si>
-    <t>期末情况：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=48}</t>
-  </si>
-  <si>
-    <t>{Value=4}</t>
-  </si>
-  <si>
-    <t>{RateValue=1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=51}</t>
-  </si>
-  <si>
-    <t>{Value=1}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=52}</t>
-  </si>
-  <si>
-    <t>{Value=5}</t>
-  </si>
-  <si>
-    <t>期内增加：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=97}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=98}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=99}</t>
-  </si>
-  <si>
-    <t>期内减少：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=100}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=101}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    {Node=102}</t>
-  </si>
-  <si>
-    <t>期末分区土地抵押登记情况（亩）</t>
-  </si>
-  <si>
-    <t>面积</t>
-  </si>
-  <si>
-    <t>抵押贷款（亿元）</t>
-  </si>
-  <si>
-    <t>Area=1</t>
-  </si>
-  <si>
-    <t>{Value=1 Node=51}</t>
-  </si>
-  <si>
-    <t>{Value=5 Node=52}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   其中：{Area=2}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">         {Area=9}</t>
-  </si>
-  <si>
-    <t>{Area=3}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   其中：{Area=10}</t>
-  </si>
-  <si>
-    <t>{Area=5}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    其中：{Area=11}</t>
-  </si>
-  <si>
-    <t>{Area=4}</t>
-  </si>
-  <si>
-    <t>{Area=6}</t>
-  </si>
-  <si>
-    <t>土地登记发证（宗）</t>
-  </si>
-  <si>
-    <t>{Node=58}</t>
-  </si>
-  <si>
-    <t>{Node=59}</t>
-  </si>
-  <si>
-    <t>{Node=103}</t>
-  </si>
-  <si>
-    <t>{Node=104}</t>
+    <t>国有土地使用权</t>
+  </si>
+  <si>
+    <t>集体土地所有权</t>
+  </si>
+  <si>
+    <t>集体土地使用权</t>
+  </si>
+  <si>
+    <t>宅基地使用权</t>
   </si>
 </sst>
 </file>
@@ -141,11 +129,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,39 +142,140 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF0099FF"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -202,117 +291,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -321,37 +321,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF0099FF"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="12"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,151 +501,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,21 +537,51 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color auto="1"/>
+        <color rgb="FF0099FF"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -575,16 +617,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -597,36 +639,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -635,10 +647,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +659,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -781,37 +793,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -870,6 +882,7 @@
   <colors>
     <mruColors>
       <color rgb="000000FF"/>
+      <color rgb="000099FF"/>
     </mruColors>
   </colors>
 </styleSheet>
@@ -1134,10 +1147,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1147,7 +1160,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="14.25" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1167,14 +1180,14 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="5"/>
@@ -1182,7 +1195,7 @@
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -1194,7 +1207,7 @@
       <c r="D5" s="2"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1206,7 +1219,7 @@
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -1218,7 +1231,7 @@
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="5"/>
@@ -1226,8 +1239,8 @@
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
+      <c r="A9" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1238,8 +1251,8 @@
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
-        <v>14</v>
+      <c r="A10" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>9</v>
@@ -1250,8 +1263,8 @@
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
-        <v>15</v>
+      <c r="A11" s="5" t="s">
+        <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>11</v>
@@ -1262,16 +1275,16 @@
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
-        <v>16</v>
+      <c r="A12" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
-        <v>17</v>
+      <c r="A13" s="5" t="s">
+        <v>5</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -1282,8 +1295,8 @@
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
+      <c r="A14" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>9</v>
@@ -1295,29 +1308,29 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="B15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" ht="14.25" spans="1:4">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -1325,166 +1338,188 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="2"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:4">
+      <c r="A27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="2"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="2"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="2"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="2"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="10" t="s">
+      <c r="B31" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" s="2"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="3" t="s">
+      <c r="B32" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:4">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-    </row>
-    <row r="32" ht="14.25" spans="1:4">
-      <c r="A32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="2"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+      <c r="B33" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>7</v>
+      </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4">
@@ -1493,18 +1528,23 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
     </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A28:A29"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B28:B29"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="C28:C29"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
